--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D62C52-42EF-4EF9-9D04-A420F2178A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1E0E2A-70C8-4B97-81C2-0731D49148C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{4B51391D-2650-47B4-A4C6-ECD2C37FA416}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{CF2E268D-7CF3-49F5-B7E0-245E1D27D1FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05024208-3B66-4F37-9731-52877F99E6A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7684CA20-E27B-43C8-BEB7-E35566870E9A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>130.37879317998804</v>
+        <v>4.4842649726493518</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1E0E2A-70C8-4B97-81C2-0731D49148C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326A3FE-312B-4CB2-ADD9-EEED57B7AE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{CF2E268D-7CF3-49F5-B7E0-245E1D27D1FC}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{0D205A57-3969-4FF8-9789-2ED7DF86AFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7684CA20-E27B-43C8-BEB7-E35566870E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C5B43-86D1-41F4-AE22-F9E4700238EC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
